--- a/tests/data/excels/test-camel-code.xlsx
+++ b/tests/data/excels/test-camel-code.xlsx
@@ -7,15 +7,15 @@
     <workbookView windowWidth="20308" windowHeight="7734" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="relation" sheetId="1" r:id="rId1"/>
-    <sheet name="attr" sheetId="2" r:id="rId2"/>
+    <sheet name="Relations" sheetId="1" r:id="rId1"/>
+    <sheet name="Attrs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -47,13 +47,10 @@
     <t>A24</t>
   </si>
   <si>
-    <t xml:space="preserve">  SnakeValue</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Name</t>
   </si>
   <si>
-    <t>T</t>
+    <t xml:space="preserve">  SnakeValue</t>
   </si>
 </sst>
 </file>
@@ -61,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,14 +69,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +87,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -106,99 +139,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,8 +177,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,19 +237,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,151 +387,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,27 +423,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,17 +443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,159 +484,185 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -673,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,7 +852,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -879,9 +876,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -905,7 +902,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -958,7 +955,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -983,7 +980,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1061,13 +1058,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7972972972973" defaultRowHeight="17.05" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.7972972972973" defaultRowHeight="17.05" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1078,94 +1075,91 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
+      <c r="B12" s="1">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
